--- a/trunk/Docs/Design/TutorialAssetList.xlsx
+++ b/trunk/Docs/Design/TutorialAssetList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="77">
   <si>
     <t>Creature</t>
   </si>
@@ -223,6 +223,30 @@
   </si>
   <si>
     <t>Laser Shot, Laser Impact</t>
+  </si>
+  <si>
+    <t>Sounds</t>
+  </si>
+  <si>
+    <t>Nort Laser Shot</t>
+  </si>
+  <si>
+    <t>Nort Laser Impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creature Death </t>
+  </si>
+  <si>
+    <t>Miner Digging</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Game play music…</t>
+  </si>
+  <si>
+    <t>Bug biting</t>
   </si>
 </sst>
 </file>
@@ -574,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +733,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -732,7 +756,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B29" t="s">
@@ -740,6 +764,47 @@
       </c>
       <c r="C29" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Docs/Design/TutorialAssetList.xlsx
+++ b/trunk/Docs/Design/TutorialAssetList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="78">
   <si>
     <t>Creature</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Bug biting</t>
+  </si>
+  <si>
+    <t>creature deploy sound</t>
   </si>
 </sst>
 </file>
@@ -598,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,10 +803,15 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
     </row>
